--- a/NACA2412.xlsx
+++ b/NACA2412.xlsx
@@ -1,37 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="5000" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="205000" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="405000" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="605000" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="805000" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="1005000" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="1205000" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="4000" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="204000" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="404000" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="604000" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="804000" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="1004000" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="1204000" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="1404000" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +61,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +400,4630 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.2825</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00988</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00475</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4258</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00417</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5192</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00996</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00404</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6136</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01053</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00425</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7079</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01131</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00477</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8008999999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01221</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00547</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8911</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01329</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00635</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9731</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01519</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00779</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0373</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01888</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01069</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0992</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02275</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01449</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.1606</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01864</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.2244</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.03143</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02352</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.2796</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02949</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.3154</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.04389</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03684</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.3252</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05165</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.04512</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8885999999999999</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.17112</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.16741</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.17442</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.17095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.2328</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00679</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00246</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3666</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00719</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00259</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00768</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00267</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6128</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00288</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.008880000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8012</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00974</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00388</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8946</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00477</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9812</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01308</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0596</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0159</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00856</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.138</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01837</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.205</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02109</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01397</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.2557</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02452</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01763</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.2972</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02904</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02236</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.3363</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.03414</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02773</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.3605</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04138</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03539</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.3689</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05109</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.04542</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.3689</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.06308</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.05788</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.3492</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.07886</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.07407999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.3144</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.09907000000000001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.09489</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.2797</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1207</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.11693</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.2219</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.14855</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.14527</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.2394</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00605</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00171</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3426</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00616</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00194</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00676</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00218</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6151</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00731</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00244</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7102000000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00792</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00279</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8045</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00882</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01215</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00564</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0737</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01432</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00749</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.1596</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01631</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00949</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.2388</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01845</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01177</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.2998</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02107</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01459</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.3457</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0247</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01842</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.394</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02862</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02256</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.4257</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.03463</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02891</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.4403</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04334</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03793</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.4505</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05386</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.04882</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.428</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0698</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.06517000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.402</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.08785</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.08366999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.3591</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.10969</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.10587</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.3094</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.13394</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.13056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.2427</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00581</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00139</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3428</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00568</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4631</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00617</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00187</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00679</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00219</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7128</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00743</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00252</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8072</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.008319999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00307</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00974</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00398</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01158</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00528</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0817</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01343</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00689</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.1729</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01505</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00856</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.2567</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01697</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01059</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.3251</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01936</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.3899</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02157</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01549</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.4394</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02501</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01917</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.4792</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02973</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0241</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.5098</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.03612</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03073</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.5289</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.04469</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03964</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.5122</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05884</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.05416</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.4855</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.07177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.434</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.09827</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.09447</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.3647</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.12513</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.12175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.2442</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00568</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00121</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3469</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00547</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0014</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4548</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00168</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5943000000000001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00638</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7154</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00236</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00804</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00291</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9016999999999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00944</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00381</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9944</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01113</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00503</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0886</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01269</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00641</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.1801</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01434</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00804</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.2697</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01589</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.009679999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.3503</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01777</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01171</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.4118</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02012</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.4699</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02282</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01703</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.5232</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02058</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.5603</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.03134</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02599</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.5782</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.03926</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03418</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.579</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0503</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.04555</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.543</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.06781</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0635</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.4956</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.08867</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.08482000000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.427</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.11451</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.11114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.2449</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.0011</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3503</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00538</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00126</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4541</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00554</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00154</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5827</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00608</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00185</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7176</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00688</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00225</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8103</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.007849999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00281</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9033</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00919</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00368</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9971</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01079</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00485</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0926</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01226</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00614</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.1878</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01362</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00752</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.2773</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01525</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.009209999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.3628</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01685</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.4344</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01873</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01293</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.4945</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02117</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.5469</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02437</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01884</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.5868</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02364</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.6146</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.03551</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03041</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.615</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.04125</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.5992</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.06007</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0557</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.5475</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.08075</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.07681</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.4601</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.10901</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.10559</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.2454</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00555</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00102</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3528</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00536</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00117</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4573</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00539</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00143</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5746</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00586</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00174</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7151999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0067</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00216</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8115</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00274</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9046</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00899</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00358</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01046</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00467</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0969</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01181</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00586</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.1932</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01311</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00715</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.2856</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01455</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.00865</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.3703</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0163</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01047</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.4495</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01785</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01212</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.5137</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01994</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01434</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.5693</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02278</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01731</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.6117</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.02696</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.6351</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.03351</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.02842</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.6471</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.04234</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.03756</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.6219</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.05706</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.05267</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.5914</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.07431</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.07034</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.5301</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.09747</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.09395000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-0.0175</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.05575</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.02246</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0393</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.05735</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02311</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.09669999999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.05988</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02506</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1527</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06339</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02833</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2063</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.06796000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03296</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2565</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.07364999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03897</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3029</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.08054</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04642</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3453</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08873</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05534</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3833</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.09823</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.06568</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4176</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.10893</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.07729</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4494</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.12063</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.08984</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4804</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.13304</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.10308</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5122</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.14587</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.11661</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5456</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.13038</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5809</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.17236</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.14427</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6178</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.18587</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1583</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6558</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.19953</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.17241</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6944</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.21337</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.18671</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7334000000000001</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.22739</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.20115</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7724</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.24161</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.21582</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8112</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.25605</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.23065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.2817</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.009849999999999999</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00472</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4259</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00967</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00415</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5192</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.009939999999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00403</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6136</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01051</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00424</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7079</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01129</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00476</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8008999999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01219</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00545</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8911</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01327</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00634</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9731</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01517</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00778</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0374</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01886</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01068</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0995</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02271</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01445</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.1607</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02675</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0186</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.2242</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.03136</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02346</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.2793</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.03691</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02941</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.04378</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03675</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.3267</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05147</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.04493</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.2866</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.06625</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.06067</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.2013</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.08992</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.08533</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6169</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.18648</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.18305</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6366000000000001</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1978</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.19442</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6558</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.20864</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.20533</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.2328</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00678</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00245</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3663</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00718</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00258</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00768</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00267</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6128</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.008189999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00288</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.008880000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00329</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8012</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00974</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00388</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8946</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01099</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00476</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9812</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01307</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0596</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0159</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00856</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.1381</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01835</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.2053</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02107</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01396</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.256</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02449</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01761</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.2976</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02901</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02233</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.3364</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.03412</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02771</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.3609</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04134</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03535</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.3692</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05105</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.04539</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.3693</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.06303</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.05782</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.3496</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.07883</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.07406</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.3151</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.09898</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0948</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.2809</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.12047</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.11668</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.2221</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.14855</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.14526</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.2394</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00605</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00171</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3426</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00616</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00194</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4856</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00675</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00217</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6151</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00731</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00243</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7102000000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00792</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00278</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8045</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00881</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8977000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00425</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9871</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01215</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00564</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0738</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01431</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00749</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.1596</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0163</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00949</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.2389</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01844</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01176</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02105</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01457</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.346</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02467</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01839</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.3942</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0286</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02255</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.426</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.03459</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02887</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.4408</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.04329</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03788</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.4509</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05381</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.04877</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.4286</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.06973</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.06511</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.4025</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.08778</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.08359999999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.3593</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.10966</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.10584</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.3097</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.13391</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.13054</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.2427</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00581</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00139</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3428</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00568</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00617</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00187</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00679</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00219</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7128</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00743</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00252</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8073</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.008319999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00307</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00974</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00398</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9911</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01157</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00528</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0818</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01342</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00689</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.1729</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01504</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00855</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.2568</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01697</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01058</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.3253</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01935</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01309</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.3901</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02156</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01548</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.4396</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01915</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.4795</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02971</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02408</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.5099</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.03611</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03072</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.5292</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.04465</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0396</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.5127</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05878</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.05409</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.486</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.07593999999999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.07171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.4344</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.09821000000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.09442</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.3647</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.12511</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.12174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.2442</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.00568</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00121</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00547</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0014</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4548</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00168</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5942</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00638</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7154</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00236</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00804</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00291</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9016999999999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00944</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00381</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9944</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01113</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00503</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0886</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01269</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00641</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.1802</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01434</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00804</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.2698</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01589</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.009679999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.3503</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01776</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.412</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02011</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01419</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02281</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01703</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.5234</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02615</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02057</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.5605</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.03132</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02597</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.5784</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.03924</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03416</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.5792</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05027</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.04553</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.5434</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.06776</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.06345000000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.08860999999999999</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.08476</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.4273</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.11446</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.11108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.2449</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.0011</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3503</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00538</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00126</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4541</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00554</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00154</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5827</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00607</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00185</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7176</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00688</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00225</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8103</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.007849999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00281</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9033</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00919</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00368</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9971</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01079</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00484</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0926</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01225</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00613</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.1879</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01362</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00752</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.2773</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01525</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.009209999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.3629</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01685</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01089</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.4345</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01873</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01293</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.4946</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02116</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01549</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.5471</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02436</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01883</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.5869</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.02899</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02363</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.6147</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0355</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0304</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.6152</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.04598</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.04122</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.5994</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.06004</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.05567</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.5476</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.08074000000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.07679999999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.4606</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.10894</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.10551</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-0.0139</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.06164</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.02406</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0424</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.06313000000000001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02455</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0993</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.06554</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02634</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1549</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06891</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02946</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2081</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.07331</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03393</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2581</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.07881000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03978</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3044</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.08547</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04705</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3467</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09336999999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05574</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3851</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.10254</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.06583</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.11287</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.07714</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4522</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.12418</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.08939</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4836</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1362</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.10232</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5154</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.14867</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.11557</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5487</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.16141</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.12903</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5836</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.17431</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.14253</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6201</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.18734</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.15614</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6578000000000001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2005</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.16981</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6961000000000001</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.21389</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.18373</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7347</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.22757</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.19787</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7734</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.24146</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.21226</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8119</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.25555</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.2268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>